--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Documents/CSC47300/Recycling-System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="440" windowWidth="28000" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="13020" yWindow="440" windowWidth="25380" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -393,13 +393,61 @@
   </si>
   <si>
     <t>224 W 29th 14th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39-11 61st Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34-02 Steinway Street </t>
+  </si>
+  <si>
+    <t>La Jornada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135-32 38th Avenue </t>
+  </si>
+  <si>
+    <t>(917) 880-5693</t>
+  </si>
+  <si>
+    <t>http://lajornadany.org</t>
+  </si>
+  <si>
+    <t>Metro World Child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 Harman Street </t>
+  </si>
+  <si>
+    <t>(718) 453-3352</t>
+  </si>
+  <si>
+    <t>http://www.metroworldchild.org</t>
+  </si>
+  <si>
+    <t>The New York City Brooklyn Youth Council Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332 Crescent Street </t>
+  </si>
+  <si>
+    <t>(718) 484-7550</t>
+  </si>
+  <si>
+    <t>http://www.nybyc.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2632 Atlantic Avenue 1st &amp; 2nd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">148-15 Archer Avenue </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +471,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -441,7 +496,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,11 +588,312 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="391">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -583,6 +939,156 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -628,6 +1134,156 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,6 +3281,9 @@
       <c r="F60" t="s">
         <v>91</v>
       </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
       <c r="H60" t="s">
         <v>84</v>
       </c>
@@ -2662,38 +3321,739 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>11385</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>11102</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="I63" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>11233</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
       <c r="H64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>11231</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>11215</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
       <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>11215</v>
+      </c>
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>10010</v>
+      </c>
+      <c r="F68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="I68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>11233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>11385</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>11230</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>11377</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>11103</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>11101</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>11385</v>
+      </c>
+      <c r="F75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>11101</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>11354</v>
+      </c>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>11221</v>
+      </c>
+      <c r="F78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>11206</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>11222</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>11101</v>
+      </c>
+      <c r="F81" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>11208</v>
+      </c>
+      <c r="F82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>11249</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>11207</v>
+      </c>
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>11233</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>11435</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>10128</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -441,6 +441,78 @@
   </si>
   <si>
     <t xml:space="preserve">148-15 Archer Avenue </t>
+  </si>
+  <si>
+    <t>Lower East Side Ecology Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469 President Street </t>
+  </si>
+  <si>
+    <t>(718) 858-8777</t>
+  </si>
+  <si>
+    <t>http://www.lesecologycenter.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Quincy Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 Second Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 Fourth Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 West 8th Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 West 14th Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 West 14th Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 East 23rd Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">208 E 23rd Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">208 Eighth Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 West 25th Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 East 37th St. 5th Floor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">520 8th Avenue 10th Floor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1158 Flatbush Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">555 West 42 Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">536 W. 46th St. </t>
+  </si>
+  <si>
+    <t>Life of Hope, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1886 Nostrand Avenue 1FL </t>
+  </si>
+  <si>
+    <t>(718) 362-3162</t>
+  </si>
+  <si>
+    <t>http://www.lohnyc.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6822 Third Avenue </t>
   </si>
 </sst>
 </file>
@@ -496,8 +568,378 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="391">
+  <cellStyleXfs count="761">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -893,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="391">
+  <cellStyles count="761">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1089,6 +1531,191 @@
     <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1284,6 +1911,191 @@
     <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1559,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4056,6 +4868,980 @@
         <v>31</v>
       </c>
     </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>11201</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>11217</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>11217</v>
+      </c>
+      <c r="F90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>11215</v>
+      </c>
+      <c r="F91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>11238</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>11249</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>10009</v>
+      </c>
+      <c r="F94" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>10003</v>
+      </c>
+      <c r="F95" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <v>10003</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>11206</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>10011</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>10011</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>10011</v>
+      </c>
+      <c r="F100" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>10010</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>10010</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>11222</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>11213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>11221</v>
+      </c>
+      <c r="F105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>10011</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>10001</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>10001</v>
+      </c>
+      <c r="F108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>10016</v>
+      </c>
+      <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>11233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>10018</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112">
+        <v>11101</v>
+      </c>
+      <c r="F112" t="s">
+        <v>51</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>11385</v>
+      </c>
+      <c r="F113" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>11101</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>11226</v>
+      </c>
+      <c r="F115" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>10036</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>10036</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>11226</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>11230</v>
+      </c>
+      <c r="F119" t="s">
+        <v>111</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>11220</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>11207</v>
+      </c>
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="440" windowWidth="25380" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="11180" yWindow="440" windowWidth="27220" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="267">
   <si>
     <t>name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>http://powermylearning.org/learn/get-involved/donate-laptops</t>
   </si>
   <si>
-    <t>Ya-ya Network</t>
-  </si>
-  <si>
     <t xml:space="preserve">224 W 29th 14th </t>
   </si>
   <si>
@@ -513,6 +510,324 @@
   </si>
   <si>
     <t xml:space="preserve">6822 Third Avenue </t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Sunnyside Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46-25 Greenpoint Avenue </t>
+  </si>
+  <si>
+    <t>(718) 392-5897</t>
+  </si>
+  <si>
+    <t>Stray Vintage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4809 Skillman Ave </t>
+  </si>
+  <si>
+    <t>(718) 779-7795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4514 Greenpoint Avenue </t>
+  </si>
+  <si>
+    <t>(718) 786-7780</t>
+  </si>
+  <si>
+    <t>Steinway Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3236 Steinway Street </t>
+  </si>
+  <si>
+    <t>(718) 278-6400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2588 Steinway Street </t>
+  </si>
+  <si>
+    <t>(718) 204-0310</t>
+  </si>
+  <si>
+    <t>Gotham Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6021 Myrtle Avenue </t>
+  </si>
+  <si>
+    <t>(347) 796-0358</t>
+  </si>
+  <si>
+    <t>Ditmars Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3120 Ditmars Boulevard </t>
+  </si>
+  <si>
+    <t>(718) 545-2529</t>
+  </si>
+  <si>
+    <t>Hour Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-22 34th Avenue </t>
+  </si>
+  <si>
+    <t>(718) 433-4724</t>
+  </si>
+  <si>
+    <t>http://hourchildren.org/?page_id=136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-10 36th Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-02 36th Avenue </t>
+  </si>
+  <si>
+    <t>Human Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 Johnson Ave </t>
+  </si>
+  <si>
+    <t>(347) 987-3362</t>
+  </si>
+  <si>
+    <t>http://humanheadnyc.com</t>
+  </si>
+  <si>
+    <t>Spoonbill and Sugartown Booksellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 Montrose Avenue </t>
+  </si>
+  <si>
+    <t>(718) 387-7322</t>
+  </si>
+  <si>
+    <t>http://www.spoonbillbooks.com/</t>
+  </si>
+  <si>
+    <t>Spoonbill &amp; Sugartown, Booksellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 Bedford Avenue </t>
+  </si>
+  <si>
+    <t>http://www.spoonbillbooks.com</t>
+  </si>
+  <si>
+    <t>Housing Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 E. 77th Street </t>
+  </si>
+  <si>
+    <t>(347) 473-7400</t>
+  </si>
+  <si>
+    <t>http://housingworks.org</t>
+  </si>
+  <si>
+    <t>Council Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246 East 84th Street </t>
+  </si>
+  <si>
+    <t>(212) 439-8373</t>
+  </si>
+  <si>
+    <t>https://www.ncjwny.org/thrift-shop/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1730 2nd Avenue </t>
+  </si>
+  <si>
+    <t>Arthritis Foundation Thrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1430 Third Ave </t>
+  </si>
+  <si>
+    <t>(212) 772-8816</t>
+  </si>
+  <si>
+    <t>http://www.arthritis.org/new-york/about-us/arthritis-foundation-thrift-shop.php</t>
+  </si>
+  <si>
+    <t>CancerCare Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1480 Third Avenue </t>
+  </si>
+  <si>
+    <t>(212) 879-9868</t>
+  </si>
+  <si>
+    <t>http://www.cancercare.org/support_us/thrift_shop</t>
+  </si>
+  <si>
+    <t>World Vision - Greater New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310 Tiffany Street </t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>(718) 292-5600</t>
+  </si>
+  <si>
+    <t>http://www.worldvisionusprograms.org/new_york.php</t>
+  </si>
+  <si>
+    <t>Unique Boutique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1674 3rd Avenue </t>
+  </si>
+  <si>
+    <t>(212) 427-0077</t>
+  </si>
+  <si>
+    <t>Good+ Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306 W. 37th Street 8th Floor </t>
+  </si>
+  <si>
+    <t>(212) 736-1777</t>
+  </si>
+  <si>
+    <t>http://goodplusfoundation.org/</t>
+  </si>
+  <si>
+    <t>Room to Grow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 West 30th Street 3 </t>
+  </si>
+  <si>
+    <t>(212) 620-7800</t>
+  </si>
+  <si>
+    <t>http://roomtogrow.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">730-732 9th Avenue </t>
+  </si>
+  <si>
+    <t>Angel Street Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 West 17th Street </t>
+  </si>
+  <si>
+    <t>(212) 229-0546</t>
+  </si>
+  <si>
+    <t>http://www.angelstreetthrift.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143 W. 17th Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">157 East 23rd Street </t>
+  </si>
+  <si>
+    <t>Unique Boutique Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402 3rd Avenue </t>
+  </si>
+  <si>
+    <t>(212) 725-4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245 W. 10th Street </t>
+  </si>
+  <si>
+    <t>St. Luke's Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487 Hudson Street Lower </t>
+  </si>
+  <si>
+    <t>(212) 924-9364</t>
+  </si>
+  <si>
+    <t>http://www.stlukeinthefields.org/life-at-saint-lukes/thriftshop</t>
+  </si>
+  <si>
+    <t>East Village Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186 2nd Avenue </t>
+  </si>
+  <si>
+    <t>(212) 375-8585</t>
+  </si>
+  <si>
+    <t>Cauz For Pawz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333 First Avenue </t>
+  </si>
+  <si>
+    <t>(212) 684-7299</t>
+  </si>
+  <si>
+    <t>http://cauzforpawz.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126 Crosby Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306 Columbus Avenue </t>
+  </si>
+  <si>
+    <t>Bowery Mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227 Bowery </t>
+  </si>
+  <si>
+    <t>(212) 674-3456</t>
+  </si>
+  <si>
+    <t>http://bowery.org/donate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487 Columbus Avenue </t>
+  </si>
+  <si>
+    <t>(212) 362-8877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119 Chambers Street </t>
+  </si>
+  <si>
+    <t>St. Margaret's House Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 Fulton Street </t>
+  </si>
+  <si>
+    <t>(212) 766-8122</t>
+  </si>
+  <si>
+    <t>http://smhnyc.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2569 Broadway </t>
   </si>
 </sst>
 </file>
@@ -568,7 +883,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="761">
+  <cellStyleXfs count="1671">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1330,12 +1645,925 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="761">
+  <cellStyles count="1671">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1716,6 +2944,461 @@
     <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2096,9 +3779,475 @@
     <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2371,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,7 +4536,7 @@
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,10 +4570,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2433,27 +4582,27 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>10018</v>
+        <v>10001</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2462,27 +4611,27 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2491,27 +4640,27 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>10036</v>
+        <v>10011</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2520,85 +4669,85 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>10011</v>
+        <v>10007</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>10001</v>
+        <v>11106</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>10036</v>
+        <v>11106</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2607,27 +4756,27 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>10016</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+        <v>10011</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2636,27 +4785,27 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2668,24 +4817,24 @@
         <v>10011</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2694,56 +4843,56 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>10011</v>
+        <v>10028</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>10010</v>
+        <v>11435</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2752,27 +4901,27 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>10010</v>
+        <v>10028</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2781,27 +4930,27 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>10003</v>
+        <v>10010</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -2810,24 +4959,27 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>10003</v>
+        <v>10023</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -2836,53 +4988,53 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <v>10023</v>
+        <v>10128</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17">
-        <v>10009</v>
+        <v>11206</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2891,85 +5043,85 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>10024</v>
+        <v>10128</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19">
-        <v>11101</v>
+        <v>10128</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20">
-        <v>11222</v>
+        <v>11249</v>
       </c>
       <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" t="s">
         <v>26</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -2978,198 +5130,198 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>10128</v>
+        <v>10003</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>10025</v>
+        <v>11233</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>11249</v>
+        <v>10075</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24">
-        <v>11101</v>
+        <v>10010</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>11101</v>
+        <v>10011</v>
       </c>
       <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" t="s">
         <v>26</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>11103</v>
+        <v>10024</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>161</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27">
-        <v>11201</v>
+        <v>11249</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -3178,85 +5330,85 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>10035</v>
+        <v>10010</v>
       </c>
       <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
         <v>30</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>11217</v>
+        <v>10010</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30">
-        <v>11206</v>
+        <v>10001</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -3265,56 +5417,56 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>10035</v>
+        <v>10002</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>11217</v>
+        <v>10014</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -3323,56 +5475,56 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>10010</v>
+        <v>10028</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34">
-        <v>11102</v>
+        <v>11106</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -3381,140 +5533,140 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <v>10001</v>
+        <v>10025</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>10002</v>
+        <v>11103</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>11101</v>
+        <v>10025</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38">
-        <v>11385</v>
+        <v>11102</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39">
-        <v>11102</v>
+        <v>10023</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -3523,195 +5675,195 @@
         <v>12</v>
       </c>
       <c r="E40">
-        <v>11233</v>
+        <v>10018</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41">
-        <v>11385</v>
+        <v>10474</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>161</v>
+      </c>
+      <c r="I41" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42">
-        <v>11101</v>
+        <v>11105</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>11233</v>
+        <v>11103</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44">
-        <v>11231</v>
+        <v>10003</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="I44" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45">
-        <v>11215</v>
+        <v>11101</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46">
-        <v>11215</v>
+        <v>11377</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -3720,198 +5872,186 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>10010</v>
+        <v>10016</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>11233</v>
+        <v>11103</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>11385</v>
+        <v>10011</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>11230</v>
+        <v>11104</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>10002</v>
+        <v>11104</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52">
-        <v>11238</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
+        <v>11101</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53">
-        <v>11213</v>
+        <v>11104</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -3920,143 +6060,140 @@
         <v>12</v>
       </c>
       <c r="E54">
-        <v>10001</v>
+        <v>10024</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55">
-        <v>11233</v>
+        <v>10014</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56">
-        <v>11385</v>
+        <v>10038</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>161</v>
+      </c>
+      <c r="I56" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57">
-        <v>11101</v>
+        <v>10036</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58">
-        <v>11230</v>
-      </c>
-      <c r="F58" t="s">
-        <v>111</v>
+        <v>11385</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I58" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="B59" t="s">
-        <v>94</v>
-      </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -4065,786 +6202,315 @@
         <v>11385</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60">
-        <v>11101</v>
+        <v>10011</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61">
-        <v>11233</v>
+        <v>10001</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I61" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62">
-        <v>11385</v>
+        <v>10019</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="I62" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63">
-        <v>11102</v>
+        <v>11222</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64">
-        <v>11233</v>
+        <v>11206</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65">
-        <v>11231</v>
+        <v>11101</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>161</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66">
-        <v>11215</v>
-      </c>
-      <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>11106</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67">
-        <v>11215</v>
-      </c>
-      <c r="F67" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68">
-        <v>10010</v>
-      </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
       <c r="H68" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69">
-        <v>11233</v>
-      </c>
-      <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
       <c r="H69" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70">
-        <v>11385</v>
-      </c>
-      <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71">
-        <v>11230</v>
-      </c>
-      <c r="F71" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>11377</v>
-      </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
       <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73">
-        <v>11103</v>
-      </c>
-      <c r="F73" t="s">
-        <v>61</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74">
-        <v>11101</v>
-      </c>
-      <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
       <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75">
-        <v>11385</v>
-      </c>
-      <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76">
-        <v>11101</v>
-      </c>
-      <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
       <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77">
-        <v>11354</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78">
-        <v>11221</v>
-      </c>
-      <c r="F78" t="s">
-        <v>130</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79">
-        <v>11206</v>
-      </c>
-      <c r="F79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
       <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80">
-        <v>11222</v>
-      </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
       <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81">
-        <v>11101</v>
-      </c>
-      <c r="F81" t="s">
-        <v>51</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
       <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82">
-        <v>11208</v>
-      </c>
-      <c r="F82" t="s">
-        <v>134</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
       <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83">
-        <v>11249</v>
-      </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
       <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84">
-        <v>11207</v>
-      </c>
-      <c r="F84" t="s">
-        <v>45</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85">
-        <v>11233</v>
-      </c>
-      <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
       <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>11435</v>
-      </c>
-      <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
       <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
         <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -4853,10 +6519,10 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <v>10128</v>
+        <v>10001</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -4865,27 +6531,27 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>11201</v>
+        <v>10001</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -4894,56 +6560,56 @@
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E89">
-        <v>11217</v>
+        <v>11230</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" t="s">
         <v>12</v>
       </c>
       <c r="E90">
-        <v>11217</v>
+        <v>11221</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4952,27 +6618,27 @@
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91">
-        <v>11215</v>
+        <v>10003</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4980,57 +6646,51 @@
       <c r="H91" t="s">
         <v>14</v>
       </c>
-      <c r="I91" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92">
-        <v>11238</v>
+        <v>10003</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
       </c>
-      <c r="I92" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93">
-        <v>11249</v>
+        <v>10003</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -5039,15 +6699,15 @@
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -5056,50 +6716,56 @@
         <v>12</v>
       </c>
       <c r="E94">
-        <v>10009</v>
+        <v>10003</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E95">
-        <v>10003</v>
+        <v>11226</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
       </c>
+      <c r="I95" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -5108,10 +6774,10 @@
         <v>12</v>
       </c>
       <c r="E96">
-        <v>10003</v>
+        <v>10011</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -5120,27 +6786,27 @@
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97">
-        <v>11206</v>
+        <v>10011</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -5149,56 +6815,56 @@
         <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E98">
-        <v>10011</v>
+        <v>11354</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E99">
-        <v>10011</v>
+        <v>11435</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5207,15 +6873,15 @@
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -5224,10 +6890,10 @@
         <v>12</v>
       </c>
       <c r="E100">
-        <v>10011</v>
+        <v>10023</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -5236,15 +6902,15 @@
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -5253,10 +6919,10 @@
         <v>12</v>
       </c>
       <c r="E101">
-        <v>10010</v>
+        <v>10128</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5265,27 +6931,27 @@
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102">
-        <v>10010</v>
+        <v>11249</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -5294,27 +6960,27 @@
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E103">
-        <v>11222</v>
+        <v>11226</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5323,73 +6989,73 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E104">
-        <v>11213</v>
+        <v>11233</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105">
-        <v>11221</v>
+        <v>10010</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -5398,10 +7064,10 @@
         <v>12</v>
       </c>
       <c r="E106">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -5410,15 +7076,15 @@
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -5427,10 +7093,10 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -5439,15 +7105,15 @@
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -5456,10 +7122,10 @@
         <v>12</v>
       </c>
       <c r="E108">
-        <v>10001</v>
+        <v>10011</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -5468,15 +7134,15 @@
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -5485,39 +7151,39 @@
         <v>12</v>
       </c>
       <c r="E109">
-        <v>10016</v>
+        <v>10024</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E110">
-        <v>11233</v>
+        <v>11238</v>
       </c>
       <c r="F110" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -5526,15 +7192,15 @@
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -5543,10 +7209,10 @@
         <v>12</v>
       </c>
       <c r="E111">
-        <v>10018</v>
+        <v>10010</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -5555,27 +7221,27 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
         <v>12</v>
       </c>
       <c r="E112">
-        <v>11101</v>
+        <v>10010</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -5584,53 +7250,56 @@
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113">
-        <v>11385</v>
+        <v>10035</v>
       </c>
       <c r="F113" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
+      <c r="I113" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114">
-        <v>11101</v>
+        <v>10001</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -5639,27 +7308,27 @@
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E115">
-        <v>11226</v>
+        <v>11201</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -5668,15 +7337,15 @@
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -5685,68 +7354,65 @@
         <v>12</v>
       </c>
       <c r="E116">
-        <v>10036</v>
+        <v>10035</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E117">
-        <v>10036</v>
+        <v>11207</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
-      <c r="I117" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118">
-        <v>11226</v>
+        <v>10025</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -5755,27 +7421,27 @@
         <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E119">
-        <v>11230</v>
+        <v>11208</v>
       </c>
       <c r="F119" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5784,27 +7450,27 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120">
-        <v>11220</v>
+        <v>11101</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -5813,36 +7479,1216 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E121">
-        <v>11207</v>
+        <v>11101</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
+      <c r="I121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>10009</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>11206</v>
+      </c>
+      <c r="F123" t="s">
+        <v>66</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>11103</v>
+      </c>
+      <c r="F124" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>11217</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>10011</v>
+      </c>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>10011</v>
+      </c>
+      <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>11101</v>
+      </c>
+      <c r="F128" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>11215</v>
+      </c>
+      <c r="F129" t="s">
+        <v>139</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>11101</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>11217</v>
+      </c>
+      <c r="F131" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>10018</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>10018</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>10036</v>
+      </c>
+      <c r="F134" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>10036</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>154</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>10036</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>92</v>
+      </c>
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137">
+        <v>11385</v>
+      </c>
+      <c r="F137" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>11220</v>
+      </c>
+      <c r="F138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>10011</v>
+      </c>
+      <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>10011</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>11213</v>
+      </c>
+      <c r="F141" t="s">
+        <v>118</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>10016</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>10016</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>11222</v>
+      </c>
+      <c r="F144" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>11230</v>
+      </c>
+      <c r="F145" t="s">
+        <v>110</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>11215</v>
+      </c>
+      <c r="F146" t="s">
+        <v>106</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>11233</v>
+      </c>
+      <c r="F147" t="s">
+        <v>98</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="s">
+        <v>52</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>11231</v>
+      </c>
+      <c r="F148" t="s">
+        <v>102</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>10010</v>
+      </c>
+      <c r="F149" t="s">
+        <v>75</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>11102</v>
+      </c>
+      <c r="F150" t="s">
+        <v>80</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>11102</v>
+      </c>
+      <c r="F151" t="s">
+        <v>80</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>92</v>
+      </c>
+      <c r="B152" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>11385</v>
+      </c>
+      <c r="F152" t="s">
+        <v>94</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" t="s">
+        <v>52</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153">
+        <v>11215</v>
+      </c>
+      <c r="F153" t="s">
+        <v>80</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" t="s">
+        <v>109</v>
+      </c>
+      <c r="C154" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>11230</v>
+      </c>
+      <c r="F154" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>83</v>
+      </c>
+      <c r="I154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>11233</v>
+      </c>
+      <c r="F155" t="s">
+        <v>98</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>83</v>
+      </c>
+      <c r="I155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>10002</v>
+      </c>
+      <c r="F156" t="s">
+        <v>86</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>83</v>
+      </c>
+      <c r="I156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>10001</v>
+      </c>
+      <c r="F157" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>83</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>10001</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>83</v>
+      </c>
+      <c r="I158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>11101</v>
+      </c>
+      <c r="F159" t="s">
+        <v>90</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>83</v>
+      </c>
+      <c r="I159" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>11238</v>
+      </c>
+      <c r="F160" t="s">
+        <v>114</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>83</v>
+      </c>
+      <c r="I160" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>11385</v>
+      </c>
+      <c r="F161" t="s">
+        <v>94</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>11213</v>
+      </c>
+      <c r="F162" t="s">
+        <v>118</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I162">
+    <sortCondition ref="H1"/>
+  </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Documents/CSC47300/Recycling-System/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="11180" yWindow="440" windowWidth="27220" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DonateNYC.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="275">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>borough</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Manhattan</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>(917) 677-5506</t>
   </si>
   <si>
@@ -828,6 +822,36 @@
   </si>
   <si>
     <t xml:space="preserve">2569 Broadway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 Montague Street </t>
+  </si>
+  <si>
+    <t>Life Boutique Thrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 5th Avenue </t>
+  </si>
+  <si>
+    <t>(718) 788-5433</t>
+  </si>
+  <si>
+    <t>http://chailifeline.org</t>
+  </si>
+  <si>
+    <t>Record &amp; Tape Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439 5th Avenue </t>
+  </si>
+  <si>
+    <t>(718) 499-8483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515 5th Avenue </t>
+  </si>
+  <si>
+    <t>1081 Coney Island Ave</t>
   </si>
 </sst>
 </file>
@@ -883,8 +907,208 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1671">
+  <cellStyleXfs count="1871">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2563,7 +2787,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1671">
+  <cellStyles count="1871">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3399,6 +3623,106 @@
     <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4234,9 +4558,179 @@
     <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4520,10 +5014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4531,15 +5025,14 @@
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4564,4131 +5057,3842 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>11230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10011</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>11106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>11106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10011</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>11201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10012</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10011</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10028</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>11435</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10028</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10010</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10023</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>11206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>11249</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10003</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>11233</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10075</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10010</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10011</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10024</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>11249</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>11238</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10010</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10010</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10014</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10028</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>11106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>10025</v>
+      </c>
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>11201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>11103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>11102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>10023</v>
+      </c>
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10018</v>
+      </c>
+      <c r="E44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45">
+        <v>10474</v>
+      </c>
+      <c r="E45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>11105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>11103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>10003</v>
+      </c>
+      <c r="E48" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>11101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>11377</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>10016</v>
+      </c>
+      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <v>11103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>11217</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>11215</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>10011</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>11104</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57">
+        <v>11104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>11238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>159</v>
+      </c>
+      <c r="H58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59">
+        <v>11101</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>11217</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61">
+        <v>11104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10024</v>
+      </c>
+      <c r="E62" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10014</v>
+      </c>
+      <c r="E63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10038</v>
+      </c>
+      <c r="E64" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>11215</v>
+      </c>
+      <c r="E65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>10036</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>159</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67">
+        <v>11385</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>11385</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>11217</v>
+      </c>
+      <c r="E69" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>11215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>10011</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10001</v>
+      </c>
+      <c r="E72" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10019</v>
+      </c>
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>11222</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>11206</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>10001</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>10001</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>11230</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>11221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>10003</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>10003</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>10003</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>10003</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>11226</v>
+      </c>
+      <c r="E84" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>10011</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>10011</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87">
+        <v>11354</v>
+      </c>
+      <c r="E87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88">
+        <v>11435</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>10023</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>10128</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>11249</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>11226</v>
+      </c>
+      <c r="E92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>11233</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10010</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>10010</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>10011</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>10011</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>10024</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>11238</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>10010</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>10010</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>10035</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>10001</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>11201</v>
+      </c>
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>10035</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>11207</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>10025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108">
+        <v>11208</v>
+      </c>
+      <c r="E108" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109">
+        <v>11101</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110">
+        <v>11101</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>10009</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>11206</v>
+      </c>
+      <c r="E112" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113">
+        <v>11103</v>
+      </c>
+      <c r="E113" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>11217</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>10011</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>10011</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117">
+        <v>11101</v>
+      </c>
+      <c r="E117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>11215</v>
+      </c>
+      <c r="E118" t="s">
+        <v>137</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119">
+        <v>11101</v>
+      </c>
+      <c r="E119" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>11217</v>
+      </c>
+      <c r="E120" t="s">
+        <v>69</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>10018</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>10018</v>
+      </c>
+      <c r="E122" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>10036</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>10036</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>10036</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126">
+        <v>11385</v>
+      </c>
+      <c r="E126" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127">
+        <v>11220</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>10011</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>10011</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>11213</v>
+      </c>
+      <c r="E130" t="s">
+        <v>116</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>10016</v>
+      </c>
+      <c r="E131" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>10016</v>
+      </c>
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>11222</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>11230</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>11215</v>
+      </c>
+      <c r="E135" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>11233</v>
+      </c>
+      <c r="E136" t="s">
+        <v>96</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137">
+        <v>11231</v>
+      </c>
+      <c r="E137" t="s">
+        <v>100</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>10010</v>
+      </c>
+      <c r="E138" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139">
+        <v>11102</v>
+      </c>
+      <c r="E139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>74</v>
+      </c>
+      <c r="H139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140">
+        <v>11102</v>
+      </c>
+      <c r="E140" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141">
+        <v>11385</v>
+      </c>
+      <c r="E141" t="s">
+        <v>92</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142">
+        <v>11215</v>
+      </c>
+      <c r="E142" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143">
+        <v>11230</v>
+      </c>
+      <c r="E143" t="s">
+        <v>108</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>81</v>
+      </c>
+      <c r="H143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144">
+        <v>11233</v>
+      </c>
+      <c r="E144" t="s">
+        <v>96</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>10002</v>
+      </c>
+      <c r="E145" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>81</v>
+      </c>
+      <c r="H145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
         <v>10001</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10003</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>10011</v>
-      </c>
-      <c r="F4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4">
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>10001</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148">
+        <v>11101</v>
+      </c>
+      <c r="E148" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>10007</v>
-      </c>
-      <c r="F5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>11106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6">
+      <c r="G148" t="s">
+        <v>81</v>
+      </c>
+      <c r="H148" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149">
+        <v>11238</v>
+      </c>
+      <c r="E149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F149">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>11106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7">
+      <c r="G149" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>90</v>
+      </c>
+      <c r="B150" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150">
+        <v>11385</v>
+      </c>
+      <c r="E150" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>10011</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>10012</v>
-      </c>
-      <c r="F9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>10011</v>
-      </c>
-      <c r="F10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10028</v>
-      </c>
-      <c r="F11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11">
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>114</v>
+      </c>
+      <c r="B151" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151">
+        <v>11213</v>
+      </c>
+      <c r="E151" t="s">
+        <v>116</v>
+      </c>
+      <c r="F151">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>11435</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>10028</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>10010</v>
-      </c>
-      <c r="F14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>10023</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>10128</v>
-      </c>
-      <c r="F16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>11206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>10128</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>10128</v>
-      </c>
-      <c r="F19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>11249</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>10003</v>
-      </c>
-      <c r="F21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>11233</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>10075</v>
-      </c>
-      <c r="F23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>10010</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>10011</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>10024</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>11249</v>
-      </c>
-      <c r="F27" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>10010</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>10010</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>10001</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>10002</v>
-      </c>
-      <c r="F31" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>10014</v>
-      </c>
-      <c r="F32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>10028</v>
-      </c>
-      <c r="F33" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>11106</v>
-      </c>
-      <c r="F34" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>10025</v>
-      </c>
-      <c r="F35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>11103</v>
-      </c>
-      <c r="F36" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>10025</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>11102</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G151" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>10023</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>10018</v>
-      </c>
-      <c r="F40" t="s">
-        <v>225</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>10474</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42">
-        <v>11105</v>
-      </c>
-      <c r="F42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>11103</v>
-      </c>
-      <c r="F43" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>10003</v>
-      </c>
-      <c r="F44" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>161</v>
-      </c>
-      <c r="I44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45">
-        <v>11101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46">
-        <v>11377</v>
-      </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>10016</v>
-      </c>
-      <c r="F47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48">
-        <v>11103</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>10011</v>
-      </c>
-      <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50">
-        <v>11104</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <v>11104</v>
-      </c>
-      <c r="F51" t="s">
-        <v>164</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>11101</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <v>11104</v>
-      </c>
-      <c r="F53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54">
-        <v>10024</v>
-      </c>
-      <c r="F54" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" t="s">
-        <v>243</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55">
-        <v>10014</v>
-      </c>
-      <c r="F55" t="s">
-        <v>244</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>161</v>
-      </c>
-      <c r="I55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" t="s">
-        <v>263</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>10038</v>
-      </c>
-      <c r="F56" t="s">
-        <v>264</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>161</v>
-      </c>
-      <c r="I56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>10036</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>161</v>
-      </c>
-      <c r="I57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58">
-        <v>11385</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59">
-        <v>11385</v>
-      </c>
-      <c r="F59" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60">
-        <v>10011</v>
-      </c>
-      <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>161</v>
-      </c>
-      <c r="I60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>227</v>
-      </c>
-      <c r="B61" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>10001</v>
-      </c>
-      <c r="F61" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62">
-        <v>10019</v>
-      </c>
-      <c r="F62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63">
-        <v>11222</v>
-      </c>
-      <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>11206</v>
-      </c>
-      <c r="F64" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>11101</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>161</v>
-      </c>
-      <c r="I65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66">
-        <v>11106</v>
-      </c>
-      <c r="H66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87">
-        <v>10001</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88">
-        <v>10001</v>
-      </c>
-      <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89">
-        <v>11230</v>
-      </c>
-      <c r="F89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90">
-        <v>11221</v>
-      </c>
-      <c r="F90" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91">
-        <v>10003</v>
-      </c>
-      <c r="F91" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92">
-        <v>10003</v>
-      </c>
-      <c r="F92" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93">
-        <v>10003</v>
-      </c>
-      <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94">
-        <v>10003</v>
-      </c>
-      <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>64</v>
-      </c>
-      <c r="B95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95">
-        <v>11226</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96">
-        <v>10011</v>
-      </c>
-      <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97">
-        <v>10011</v>
-      </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98">
-        <v>11354</v>
-      </c>
-      <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99">
-        <v>11435</v>
-      </c>
-      <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100">
-        <v>10023</v>
-      </c>
-      <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101">
-        <v>10128</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102">
-        <v>11249</v>
-      </c>
-      <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103">
-        <v>11226</v>
-      </c>
-      <c r="F103" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104">
-        <v>11233</v>
-      </c>
-      <c r="F104" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105">
-        <v>10010</v>
-      </c>
-      <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106">
-        <v>10010</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107">
-        <v>10011</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108">
-        <v>10011</v>
-      </c>
-      <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109">
-        <v>10024</v>
-      </c>
-      <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110">
-        <v>11238</v>
-      </c>
-      <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111">
-        <v>10010</v>
-      </c>
-      <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112">
-        <v>10010</v>
-      </c>
-      <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113">
-        <v>10035</v>
-      </c>
-      <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114">
-        <v>10001</v>
-      </c>
-      <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115">
-        <v>11201</v>
-      </c>
-      <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116">
-        <v>10035</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117">
-        <v>11207</v>
-      </c>
-      <c r="F117" t="s">
-        <v>44</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118">
-        <v>10025</v>
-      </c>
-      <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119">
-        <v>11208</v>
-      </c>
-      <c r="F119" t="s">
-        <v>133</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120">
-        <v>11101</v>
-      </c>
-      <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121">
-        <v>11101</v>
-      </c>
-      <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>42</v>
-      </c>
-      <c r="B122" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122">
-        <v>10009</v>
-      </c>
-      <c r="F122" t="s">
-        <v>44</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>64</v>
-      </c>
-      <c r="B123" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>11206</v>
-      </c>
-      <c r="F123" t="s">
-        <v>66</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124">
-        <v>11103</v>
-      </c>
-      <c r="F124" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125">
-        <v>11217</v>
-      </c>
-      <c r="F125" t="s">
-        <v>25</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>27</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126">
-        <v>10011</v>
-      </c>
-      <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127">
-        <v>10011</v>
-      </c>
-      <c r="F127" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128">
-        <v>11101</v>
-      </c>
-      <c r="F128" t="s">
-        <v>50</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129">
-        <v>11215</v>
-      </c>
-      <c r="F129" t="s">
-        <v>139</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>27</v>
-      </c>
-      <c r="B130" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130">
-        <v>11101</v>
-      </c>
-      <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131">
-        <v>11217</v>
-      </c>
-      <c r="F131" t="s">
-        <v>71</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132">
-        <v>10018</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" t="s">
-        <v>152</v>
-      </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133">
-        <v>10018</v>
-      </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134">
-        <v>10036</v>
-      </c>
-      <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135">
-        <v>10036</v>
-      </c>
-      <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" t="s">
-        <v>154</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136">
-        <v>10036</v>
-      </c>
-      <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>92</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137">
-        <v>11385</v>
-      </c>
-      <c r="F137" t="s">
-        <v>94</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" t="s">
-        <v>160</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138">
-        <v>11220</v>
-      </c>
-      <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>27</v>
-      </c>
-      <c r="B139" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139">
-        <v>10011</v>
-      </c>
-      <c r="F139" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139" t="s">
-        <v>14</v>
-      </c>
-      <c r="I139" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>27</v>
-      </c>
-      <c r="B140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140">
-        <v>10011</v>
-      </c>
-      <c r="F140" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>116</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="H151" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141">
-        <v>11213</v>
-      </c>
-      <c r="F141" t="s">
-        <v>118</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142">
-        <v>10016</v>
-      </c>
-      <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143">
-        <v>10016</v>
-      </c>
-      <c r="F143" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143" t="s">
-        <v>14</v>
-      </c>
-      <c r="I143" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144">
-        <v>11222</v>
-      </c>
-      <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>108</v>
-      </c>
-      <c r="B145" t="s">
-        <v>109</v>
-      </c>
-      <c r="C145" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145">
-        <v>11230</v>
-      </c>
-      <c r="F145" t="s">
-        <v>110</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
-        <v>76</v>
-      </c>
-      <c r="I145" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>104</v>
-      </c>
-      <c r="B146" t="s">
-        <v>105</v>
-      </c>
-      <c r="C146" t="s">
-        <v>52</v>
-      </c>
-      <c r="D146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146">
-        <v>11215</v>
-      </c>
-      <c r="F146" t="s">
-        <v>106</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146" t="s">
-        <v>76</v>
-      </c>
-      <c r="I146" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>96</v>
-      </c>
-      <c r="B147" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147">
-        <v>11233</v>
-      </c>
-      <c r="F147" t="s">
-        <v>98</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
-        <v>76</v>
-      </c>
-      <c r="I147" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>100</v>
-      </c>
-      <c r="B148" t="s">
-        <v>101</v>
-      </c>
-      <c r="C148" t="s">
-        <v>52</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148">
-        <v>11231</v>
-      </c>
-      <c r="F148" t="s">
-        <v>102</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>73</v>
-      </c>
-      <c r="B149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149">
-        <v>10010</v>
-      </c>
-      <c r="F149" t="s">
-        <v>75</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>76</v>
-      </c>
-      <c r="I149" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>78</v>
-      </c>
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150">
-        <v>11102</v>
-      </c>
-      <c r="F150" t="s">
-        <v>80</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>76</v>
-      </c>
-      <c r="I150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" t="s">
-        <v>79</v>
-      </c>
-      <c r="C151" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151">
-        <v>11102</v>
-      </c>
-      <c r="F151" t="s">
-        <v>80</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
-        <v>76</v>
-      </c>
-      <c r="I151" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>92</v>
-      </c>
-      <c r="B152" t="s">
-        <v>93</v>
-      </c>
-      <c r="C152" t="s">
-        <v>49</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152">
-        <v>11385</v>
-      </c>
-      <c r="F152" t="s">
-        <v>94</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>78</v>
-      </c>
-      <c r="B153" t="s">
-        <v>103</v>
-      </c>
-      <c r="C153" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153">
-        <v>11215</v>
-      </c>
-      <c r="F153" t="s">
-        <v>80</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
-        <v>76</v>
-      </c>
-      <c r="I153" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>108</v>
-      </c>
-      <c r="B154" t="s">
-        <v>109</v>
-      </c>
-      <c r="C154" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154">
-        <v>11230</v>
-      </c>
-      <c r="F154" t="s">
-        <v>110</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154" t="s">
-        <v>83</v>
-      </c>
-      <c r="I154" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>96</v>
-      </c>
-      <c r="B155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155">
-        <v>11233</v>
-      </c>
-      <c r="F155" t="s">
-        <v>98</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>83</v>
-      </c>
-      <c r="I155" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156">
-        <v>10002</v>
-      </c>
-      <c r="F156" t="s">
-        <v>86</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156" t="s">
-        <v>83</v>
-      </c>
-      <c r="I156" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" t="s">
-        <v>120</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157">
-        <v>10001</v>
-      </c>
-      <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157" t="s">
-        <v>83</v>
-      </c>
-      <c r="I157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>82</v>
-      </c>
-      <c r="B158" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158">
-        <v>10001</v>
-      </c>
-      <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158" t="s">
-        <v>83</v>
-      </c>
-      <c r="I158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>88</v>
-      </c>
-      <c r="B159" t="s">
-        <v>89</v>
-      </c>
-      <c r="C159" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159">
-        <v>11101</v>
-      </c>
-      <c r="F159" t="s">
-        <v>90</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159" t="s">
-        <v>83</v>
-      </c>
-      <c r="I159" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>112</v>
-      </c>
-      <c r="B160" t="s">
-        <v>113</v>
-      </c>
-      <c r="C160" t="s">
-        <v>52</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160">
-        <v>11238</v>
-      </c>
-      <c r="F160" t="s">
-        <v>114</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>83</v>
-      </c>
-      <c r="I160" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>92</v>
-      </c>
-      <c r="B161" t="s">
-        <v>93</v>
-      </c>
-      <c r="C161" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161">
-        <v>11385</v>
-      </c>
-      <c r="F161" t="s">
-        <v>94</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" t="s">
-        <v>117</v>
-      </c>
-      <c r="C162" t="s">
-        <v>52</v>
-      </c>
-      <c r="D162" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162">
-        <v>11213</v>
-      </c>
-      <c r="F162" t="s">
-        <v>118</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162" t="s">
-        <v>83</v>
-      </c>
-      <c r="I162" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I162">
-    <sortCondition ref="H1"/>
+  <sortState ref="A2:H151">
+    <sortCondition ref="G1"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RAFAELLICHEN/Documents/CSC47300/Recycling-System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="440" windowWidth="27220" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="11020" windowWidth="38400" windowHeight="10580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DonateNYC.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="293">
   <si>
     <t>name</t>
   </si>
@@ -137,18 +137,6 @@
     <t>7 West 14th Street</t>
   </si>
   <si>
-    <t>44 West 8th Street</t>
-  </si>
-  <si>
-    <t>220 East 23rd Street</t>
-  </si>
-  <si>
-    <t>208 E 23rd Street</t>
-  </si>
-  <si>
-    <t>112 Fourth Avenue</t>
-  </si>
-  <si>
     <t>WPA</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t xml:space="preserve">47-47 Van Dam Street </t>
   </si>
   <si>
-    <t>34-02 Steinway Street</t>
-  </si>
-  <si>
     <t>Broadway Thrift Shop</t>
   </si>
   <si>
@@ -308,9 +293,6 @@
     <t>(347) 335-0844</t>
   </si>
   <si>
-    <t>3-17 26th Avenue</t>
-  </si>
-  <si>
     <t>Grassroots Artists MovEment (G.A.ME)</t>
   </si>
   <si>
@@ -383,9 +365,6 @@
     <t>http://chabadgirlsacademy@gmail.com</t>
   </si>
   <si>
-    <t>224 W 29th 14th</t>
-  </si>
-  <si>
     <t xml:space="preserve">39-11 61st Street </t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t xml:space="preserve">22 Quincy Street </t>
   </si>
   <si>
-    <t xml:space="preserve">110 Second Avenue </t>
-  </si>
-  <si>
     <t xml:space="preserve">112 Fourth Avenue </t>
   </si>
   <si>
@@ -479,9 +455,6 @@
     <t xml:space="preserve">9 East 37th St. 5th Floor </t>
   </si>
   <si>
-    <t xml:space="preserve">520 8th Avenue 10th Floor </t>
-  </si>
-  <si>
     <t xml:space="preserve">1158 Flatbush Avenue </t>
   </si>
   <si>
@@ -852,6 +825,87 @@
   </si>
   <si>
     <t>1081 Coney Island Ave</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>0900,2100</t>
+  </si>
+  <si>
+    <t>1000,2000</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>1200,1800</t>
+  </si>
+  <si>
+    <t>1230,1800</t>
+  </si>
+  <si>
+    <t>1000,1600</t>
+  </si>
+  <si>
+    <t>1200,2330</t>
+  </si>
+  <si>
+    <t>0900,1730</t>
+  </si>
+  <si>
+    <t>0930,1730</t>
+  </si>
+  <si>
+    <t>1100,1900</t>
+  </si>
+  <si>
+    <t>0900,1700</t>
+  </si>
+  <si>
+    <t>1100,1700</t>
+  </si>
+  <si>
+    <t>1000,1900</t>
+  </si>
+  <si>
+    <t>1100,1800</t>
+  </si>
+  <si>
+    <t>0830,1730</t>
+  </si>
+  <si>
+    <t>0930,1700</t>
+  </si>
+  <si>
+    <t>0900,1630</t>
+  </si>
+  <si>
+    <t>1130,1900</t>
+  </si>
+  <si>
+    <t>1200,1900</t>
+  </si>
+  <si>
+    <t>1200,1700</t>
   </si>
 </sst>
 </file>
@@ -907,7 +961,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1871">
+  <cellStyleXfs count="2321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2779,15 +2833,467 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1871">
+  <cellStyles count="2321">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3723,6 +4229,231 @@
     <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4658,39 +5389,234 @@
     <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5014,25 +5940,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5040,3241 +5967,3802 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="L2">
         <v>10001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4">
         <v>11230</v>
       </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3">
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <v>11230</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6">
+        <v>11230</v>
+      </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7">
+        <v>11230</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>11221</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10003</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="L10">
         <v>10003</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M10" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="O10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="L11">
+        <v>10003</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12">
+        <v>11226</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <v>10011</v>
       </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5">
+      <c r="M13" t="s">
+        <v>223</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="O13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10007</v>
+      </c>
+      <c r="M14" t="s">
+        <v>189</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>11106</v>
+      </c>
+      <c r="M15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <v>11106</v>
+      </c>
+      <c r="M16" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>10011</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>10011</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19">
+        <v>11201</v>
+      </c>
+      <c r="M19" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>11215</v>
+      </c>
+      <c r="M20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>10012</v>
+      </c>
+      <c r="M21" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22">
+        <v>11354</v>
+      </c>
+      <c r="M22" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>10011</v>
+      </c>
+      <c r="M23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>10007</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="L24">
+        <v>10028</v>
+      </c>
+      <c r="M24" t="s">
         <v>198</v>
       </c>
-      <c r="F6">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25">
+        <v>11435</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>11106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>11106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10011</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="O25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>11201</v>
-      </c>
-      <c r="E10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10012</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10011</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10028</v>
-      </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>11435</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10028</v>
-      </c>
-      <c r="E15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10010</v>
-      </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10023</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>11206</v>
-      </c>
-      <c r="E19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>11249</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10003</v>
-      </c>
-      <c r="E23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>11233</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>10075</v>
-      </c>
-      <c r="E25" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26">
+        <v>11435</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>10028</v>
+      </c>
+      <c r="M27" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>10010</v>
+      </c>
+      <c r="M28" t="s">
+        <v>189</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>10023</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10023</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>10128</v>
+      </c>
+      <c r="M31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32">
+        <v>11206</v>
+      </c>
+      <c r="M32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>10128</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10128</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>10128</v>
+      </c>
+      <c r="M35" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <v>11249</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37">
+        <v>11249</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>10003</v>
+      </c>
+      <c r="M38" t="s">
+        <v>237</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
         <v>146</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39">
+        <v>11226</v>
+      </c>
+      <c r="M39" t="s">
+        <v>147</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>11233</v>
+      </c>
+      <c r="M40" t="s">
+        <v>90</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41">
+        <v>11233</v>
+      </c>
+      <c r="M41" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="L42">
+        <v>11233</v>
+      </c>
+      <c r="M42" t="s">
+        <v>90</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43">
+        <v>11233</v>
+      </c>
+      <c r="M43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>10002</v>
+      </c>
+      <c r="M44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>10075</v>
+      </c>
+      <c r="M45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46">
         <v>10010</v>
       </c>
-      <c r="E26" t="s">
+      <c r="M46" t="s">
         <v>23</v>
       </c>
-      <c r="F26">
+      <c r="N46">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="O46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="L47">
+        <v>10010</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48">
         <v>10011</v>
       </c>
-      <c r="E27" t="s">
+      <c r="M48" t="s">
         <v>23</v>
       </c>
-      <c r="F27">
+      <c r="N48">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="O48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>10024</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>11249</v>
-      </c>
-      <c r="E29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>11238</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>10010</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>10010</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>10001</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>10002</v>
-      </c>
-      <c r="E34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>10014</v>
-      </c>
-      <c r="E35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>10028</v>
-      </c>
-      <c r="E36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37">
-        <v>11106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>10025</v>
-      </c>
-      <c r="E38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>11201</v>
-      </c>
-      <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40">
-        <v>11103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>10025</v>
-      </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42">
-        <v>11102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>10023</v>
-      </c>
-      <c r="E43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>10018</v>
-      </c>
-      <c r="E44" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45">
-        <v>10474</v>
-      </c>
-      <c r="E45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46">
-        <v>11105</v>
-      </c>
-      <c r="E46" t="s">
-        <v>178</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47">
-        <v>11103</v>
-      </c>
-      <c r="E47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>10003</v>
-      </c>
-      <c r="E48" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49">
-        <v>11101</v>
-      </c>
-      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>10011</v>
+      </c>
+      <c r="M49" t="s">
         <v>23</v>
       </c>
-      <c r="F49">
+      <c r="N49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>10024</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>10024</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52">
+        <v>11249</v>
+      </c>
+      <c r="M52" t="s">
+        <v>182</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53">
+        <v>11231</v>
+      </c>
+      <c r="M53" t="s">
+        <v>94</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54">
+        <v>11238</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55">
+        <v>11238</v>
+      </c>
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>10010</v>
+      </c>
+      <c r="M56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>10010</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>10010</v>
+      </c>
+      <c r="M58" t="s">
+        <v>68</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>10010</v>
+      </c>
+      <c r="M59" t="s">
+        <v>68</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60">
+        <v>10035</v>
+      </c>
+      <c r="M60" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>10001</v>
+      </c>
+      <c r="M61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>10001</v>
+      </c>
+      <c r="M62" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>10001</v>
+      </c>
+      <c r="M63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>10002</v>
+      </c>
+      <c r="M64" t="s">
+        <v>246</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>10014</v>
+      </c>
+      <c r="M65" t="s">
+        <v>189</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="K66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>10028</v>
+      </c>
+      <c r="M66" t="s">
+        <v>193</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="K67" t="s">
+        <v>43</v>
+      </c>
+      <c r="L67">
+        <v>11106</v>
+      </c>
+      <c r="M67" t="s">
+        <v>172</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>10025</v>
+      </c>
+      <c r="M68" t="s">
+        <v>189</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69">
+        <v>11201</v>
+      </c>
+      <c r="M69" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70">
+        <v>11201</v>
+      </c>
+      <c r="M70" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>159</v>
       </c>
-      <c r="H49" t="s">
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="K71" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71">
+        <v>11103</v>
+      </c>
+      <c r="M71" t="s">
+        <v>163</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>10035</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>11377</v>
-      </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>10016</v>
-      </c>
-      <c r="E51" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L73">
+        <v>11207</v>
+      </c>
+      <c r="M73" t="s">
+        <v>38</v>
+      </c>
+      <c r="N73">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52">
-        <v>11103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>11217</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>159</v>
-      </c>
-      <c r="H53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" t="s">
-        <v>271</v>
-      </c>
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>11215</v>
-      </c>
-      <c r="E54" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>10011</v>
-      </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56">
-        <v>11104</v>
-      </c>
-      <c r="E56" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57">
-        <v>11104</v>
-      </c>
-      <c r="E57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>11238</v>
-      </c>
-      <c r="E58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>159</v>
-      </c>
-      <c r="H58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59">
-        <v>11101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>11217</v>
-      </c>
-      <c r="E60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61">
-        <v>11104</v>
-      </c>
-      <c r="E61" t="s">
-        <v>165</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <v>10024</v>
-      </c>
-      <c r="E62" t="s">
-        <v>258</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" t="s">
-        <v>241</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>10014</v>
-      </c>
-      <c r="E63" t="s">
-        <v>242</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" t="s">
-        <v>261</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>10038</v>
-      </c>
-      <c r="E64" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>266</v>
-      </c>
-      <c r="B65" t="s">
-        <v>273</v>
-      </c>
-      <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65">
-        <v>11215</v>
-      </c>
-      <c r="E65" t="s">
-        <v>268</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>159</v>
-      </c>
-      <c r="H65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66">
-        <v>10036</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>159</v>
-      </c>
-      <c r="H66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67">
-        <v>11385</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68">
-        <v>11385</v>
-      </c>
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>266</v>
-      </c>
-      <c r="B69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69">
-        <v>11217</v>
-      </c>
-      <c r="E69" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>159</v>
-      </c>
-      <c r="H69" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70">
-        <v>11215</v>
-      </c>
-      <c r="E70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>159</v>
-      </c>
-      <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>10011</v>
-      </c>
-      <c r="E71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>159</v>
-      </c>
-      <c r="H71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>10001</v>
-      </c>
-      <c r="E72" t="s">
-        <v>227</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>10019</v>
-      </c>
-      <c r="E73" t="s">
-        <v>198</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>159</v>
-      </c>
-      <c r="H73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74">
-        <v>11222</v>
-      </c>
-      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+      <c r="K74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>10025</v>
+      </c>
+      <c r="M74" t="s">
         <v>23</v>
       </c>
-      <c r="F74">
+      <c r="N74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75">
+        <v>10025</v>
+      </c>
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="K76" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76">
+        <v>11102</v>
+      </c>
+      <c r="M76" t="s">
+        <v>73</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" t="s">
+        <v>43</v>
+      </c>
+      <c r="L77">
+        <v>11102</v>
+      </c>
+      <c r="M77" t="s">
+        <v>73</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="K78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78">
+        <v>10023</v>
+      </c>
+      <c r="M78" t="s">
+        <v>189</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>10018</v>
+      </c>
+      <c r="M79" t="s">
+        <v>214</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="K80" t="s">
+        <v>206</v>
+      </c>
+      <c r="L80">
+        <v>10474</v>
+      </c>
+      <c r="M80" t="s">
+        <v>207</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K81" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81">
+        <v>11105</v>
+      </c>
+      <c r="M81" t="s">
+        <v>169</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>159</v>
       </c>
-      <c r="H74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75">
-        <v>11206</v>
-      </c>
-      <c r="E75" t="s">
-        <v>191</v>
-      </c>
-      <c r="F75">
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="K82" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82">
+        <v>11103</v>
+      </c>
+      <c r="M82" t="s">
+        <v>161</v>
+      </c>
+      <c r="N82">
         <v>0</v>
       </c>
-      <c r="G75" t="s">
-        <v>159</v>
-      </c>
-      <c r="H75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s">
+        <v>43</v>
+      </c>
+      <c r="L83">
+        <v>11101</v>
+      </c>
+      <c r="M83" t="s">
+        <v>83</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84">
+        <v>11208</v>
+      </c>
+      <c r="M84" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K85" t="s">
         <v>10</v>
       </c>
-      <c r="D76">
-        <v>10001</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>10001</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78">
-        <v>11230</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78">
+      <c r="L85">
+        <v>10003</v>
+      </c>
+      <c r="M85" t="s">
+        <v>240</v>
+      </c>
+      <c r="N85">
         <v>0</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79">
-        <v>11221</v>
-      </c>
-      <c r="E79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>10003</v>
-      </c>
-      <c r="E80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>10003</v>
-      </c>
-      <c r="E81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>10003</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83">
-        <v>10003</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84">
-        <v>11226</v>
-      </c>
-      <c r="E84" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85">
-        <v>10011</v>
-      </c>
-      <c r="E85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="K86" t="s">
+        <v>43</v>
+      </c>
+      <c r="L86">
+        <v>11101</v>
+      </c>
+      <c r="M86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L87">
+        <v>11101</v>
+      </c>
+      <c r="M87" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K88" t="s">
         <v>10</v>
       </c>
-      <c r="D86">
-        <v>10011</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="L88">
+        <v>10009</v>
+      </c>
+      <c r="M88" t="s">
+        <v>38</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89">
+        <v>11206</v>
+      </c>
+      <c r="M89" t="s">
+        <v>59</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="K90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L90">
+        <v>11377</v>
+      </c>
+      <c r="M90" t="s">
         <v>23</v>
       </c>
-      <c r="F86">
+      <c r="N90">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="O90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="K91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91">
+        <v>10016</v>
+      </c>
+      <c r="M91" t="s">
+        <v>229</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="K92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92">
+        <v>11103</v>
+      </c>
+      <c r="M92" t="s">
+        <v>53</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
         <v>12</v>
       </c>
-      <c r="H86" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87">
-        <v>11354</v>
-      </c>
-      <c r="E87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88">
-        <v>11435</v>
-      </c>
-      <c r="E88" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88">
+      <c r="K93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L93">
+        <v>11103</v>
+      </c>
+      <c r="M93" t="s">
+        <v>53</v>
+      </c>
+      <c r="N93">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89">
-        <v>10023</v>
-      </c>
-      <c r="E89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90">
-        <v>10128</v>
-      </c>
-      <c r="E90" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91">
-        <v>11249</v>
-      </c>
-      <c r="E91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92">
-        <v>11226</v>
-      </c>
-      <c r="E92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93">
-        <v>11233</v>
-      </c>
-      <c r="E93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94">
-        <v>10010</v>
-      </c>
-      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="K94" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94">
+        <v>11217</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F94">
+      <c r="N94">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="O94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95">
+        <v>11217</v>
+      </c>
+      <c r="M95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="K96" t="s">
+        <v>46</v>
+      </c>
+      <c r="L96">
+        <v>11215</v>
+      </c>
+      <c r="M96" t="s">
+        <v>263</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="K97" t="s">
         <v>10</v>
       </c>
-      <c r="D95">
-        <v>10010</v>
-      </c>
-      <c r="E95" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95">
+      <c r="L97">
+        <v>10011</v>
+      </c>
+      <c r="M97" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97">
         <v>1</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96">
-        <v>10011</v>
-      </c>
-      <c r="E96" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97">
-        <v>10011</v>
-      </c>
-      <c r="E97" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" t="s">
         <v>10</v>
       </c>
-      <c r="D98">
+      <c r="L98">
+        <v>10011</v>
+      </c>
+      <c r="M98" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99">
+        <v>11101</v>
+      </c>
+      <c r="M99" t="s">
+        <v>44</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="K100" t="s">
+        <v>43</v>
+      </c>
+      <c r="L100">
+        <v>11104</v>
+      </c>
+      <c r="M100" t="s">
+        <v>158</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+      <c r="K101" t="s">
+        <v>43</v>
+      </c>
+      <c r="L101">
+        <v>11104</v>
+      </c>
+      <c r="M101" t="s">
+        <v>153</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>150</v>
+      </c>
+      <c r="K102" t="s">
+        <v>46</v>
+      </c>
+      <c r="L102">
+        <v>11238</v>
+      </c>
+      <c r="M102" t="s">
+        <v>106</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="K103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L103">
+        <v>11238</v>
+      </c>
+      <c r="M103" t="s">
+        <v>106</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L104">
+        <v>11215</v>
+      </c>
+      <c r="M104" t="s">
+        <v>130</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>150</v>
+      </c>
+      <c r="K105" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105">
+        <v>11101</v>
+      </c>
+      <c r="M105" t="s">
+        <v>27</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106">
+        <v>11101</v>
+      </c>
+      <c r="M106" t="s">
+        <v>27</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>150</v>
+      </c>
+      <c r="K107" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107">
+        <v>11217</v>
+      </c>
+      <c r="M107" t="s">
+        <v>64</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108">
+        <v>11217</v>
+      </c>
+      <c r="M108" t="s">
+        <v>64</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="K109" t="s">
+        <v>43</v>
+      </c>
+      <c r="L109">
+        <v>11104</v>
+      </c>
+      <c r="M109" t="s">
+        <v>156</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="K110" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110">
         <v>10024</v>
       </c>
-      <c r="E98" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98">
+      <c r="M110" t="s">
+        <v>249</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="K111" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111">
+        <v>10014</v>
+      </c>
+      <c r="M111" t="s">
+        <v>233</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" t="s">
+        <v>150</v>
+      </c>
+      <c r="K112" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112">
+        <v>10038</v>
+      </c>
+      <c r="M112" t="s">
+        <v>253</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" t="s">
+        <v>150</v>
+      </c>
+      <c r="K113" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113">
+        <v>11215</v>
+      </c>
+      <c r="M113" t="s">
+        <v>259</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114">
+        <v>10018</v>
+      </c>
+      <c r="M114" t="s">
+        <v>11</v>
+      </c>
+      <c r="N114">
         <v>1</v>
       </c>
-      <c r="G98" t="s">
+      <c r="O114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
         <v>12</v>
       </c>
-      <c r="H98" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="K115" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115">
+        <v>10036</v>
+      </c>
+      <c r="M115" t="s">
+        <v>23</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>21</v>
       </c>
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99">
-        <v>11238</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+      <c r="K116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116">
+        <v>10036</v>
+      </c>
+      <c r="M116" t="s">
         <v>23</v>
       </c>
-      <c r="F99">
+      <c r="N116">
         <v>1</v>
       </c>
-      <c r="G99" t="s">
+      <c r="O116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
         <v>12</v>
       </c>
-      <c r="H99" t="s">
+      <c r="K117" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117">
+        <v>10036</v>
+      </c>
+      <c r="M117" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118">
+        <v>10036</v>
+      </c>
+      <c r="M118" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" t="s">
+        <v>150</v>
+      </c>
+      <c r="K119" t="s">
+        <v>43</v>
+      </c>
+      <c r="L119">
+        <v>11385</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" t="s">
+        <v>150</v>
+      </c>
+      <c r="K120" t="s">
+        <v>43</v>
+      </c>
+      <c r="L120">
+        <v>11385</v>
+      </c>
+      <c r="M120" t="s">
+        <v>87</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L121">
+        <v>11385</v>
+      </c>
+      <c r="M121" t="s">
+        <v>87</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>69</v>
+      </c>
+      <c r="K122" t="s">
+        <v>43</v>
+      </c>
+      <c r="L122">
+        <v>11385</v>
+      </c>
+      <c r="M122" t="s">
+        <v>87</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="K123" t="s">
+        <v>43</v>
+      </c>
+      <c r="L123">
+        <v>11385</v>
+      </c>
+      <c r="M123" t="s">
+        <v>87</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>150</v>
+      </c>
+      <c r="K124" t="s">
+        <v>46</v>
+      </c>
+      <c r="L124">
+        <v>11217</v>
+      </c>
+      <c r="M124" t="s">
+        <v>259</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L125">
+        <v>11220</v>
+      </c>
+      <c r="M125" t="s">
+        <v>23</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100">
-        <v>10010</v>
-      </c>
-      <c r="E100" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" t="s">
+        <v>150</v>
+      </c>
+      <c r="K126" t="s">
+        <v>46</v>
+      </c>
+      <c r="L126">
+        <v>11215</v>
+      </c>
+      <c r="M126" t="s">
+        <v>73</v>
+      </c>
+      <c r="N126">
         <v>1</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101">
-        <v>10010</v>
-      </c>
-      <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101">
+      <c r="O126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" t="s">
+        <v>69</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+      <c r="L127">
+        <v>11215</v>
+      </c>
+      <c r="M127" t="s">
+        <v>73</v>
+      </c>
+      <c r="N127">
         <v>1</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>10035</v>
-      </c>
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103">
-        <v>10001</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104">
-        <v>11201</v>
-      </c>
-      <c r="E104" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105">
-        <v>10035</v>
-      </c>
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106">
-        <v>11207</v>
-      </c>
-      <c r="E106" t="s">
-        <v>42</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107">
-        <v>10025</v>
-      </c>
-      <c r="E107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108">
-        <v>11208</v>
-      </c>
-      <c r="E108" t="s">
-        <v>131</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109">
-        <v>11101</v>
-      </c>
-      <c r="E109" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110">
-        <v>11101</v>
-      </c>
-      <c r="E110" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C111" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111">
-        <v>10009</v>
-      </c>
-      <c r="E111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D112">
-        <v>11206</v>
-      </c>
-      <c r="E112" t="s">
-        <v>64</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" t="s">
-        <v>47</v>
-      </c>
-      <c r="D113">
-        <v>11103</v>
-      </c>
-      <c r="E113" t="s">
-        <v>58</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114">
-        <v>11217</v>
-      </c>
-      <c r="E114" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C115" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115">
-        <v>10011</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>25</v>
-      </c>
-      <c r="B116" t="s">
-        <v>142</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116">
-        <v>10011</v>
-      </c>
-      <c r="E116" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" t="s">
-        <v>46</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D117">
-        <v>11101</v>
-      </c>
-      <c r="E117" t="s">
-        <v>48</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118">
-        <v>11215</v>
-      </c>
-      <c r="E118" t="s">
-        <v>137</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" t="s">
-        <v>54</v>
-      </c>
-      <c r="C119" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119">
-        <v>11101</v>
-      </c>
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>67</v>
-      </c>
-      <c r="B120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120">
-        <v>11217</v>
-      </c>
-      <c r="E120" t="s">
-        <v>69</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121">
-        <v>10018</v>
-      </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" t="s">
-        <v>150</v>
-      </c>
-      <c r="C122" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122">
-        <v>10018</v>
-      </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>21</v>
-      </c>
-      <c r="B123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123">
-        <v>10036</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124">
-        <v>10036</v>
-      </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" t="s">
-        <v>152</v>
-      </c>
-      <c r="C125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125">
-        <v>10036</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D126">
-        <v>11385</v>
-      </c>
-      <c r="E126" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" t="s">
-        <v>158</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127">
-        <v>11220</v>
-      </c>
-      <c r="E127" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -8282,616 +9770,308 @@
         <v>35</v>
       </c>
       <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" t="s">
         <v>10</v>
       </c>
-      <c r="D128">
+      <c r="L128">
         <v>10011</v>
       </c>
-      <c r="E128" t="s">
+      <c r="M128" t="s">
         <v>27</v>
       </c>
-      <c r="F128">
+      <c r="N128">
         <v>1</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="O128" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="K129" t="s">
         <v>10</v>
       </c>
-      <c r="D129">
+      <c r="L129">
         <v>10011</v>
       </c>
-      <c r="E129" t="s">
+      <c r="M129" t="s">
         <v>27</v>
       </c>
-      <c r="F129">
+      <c r="N129">
         <v>1</v>
       </c>
-      <c r="G129" t="s">
+      <c r="O129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K130" t="s">
+        <v>10</v>
+      </c>
+      <c r="L130">
+        <v>10001</v>
+      </c>
+      <c r="M130" t="s">
+        <v>218</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>150</v>
+      </c>
+      <c r="K131" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131">
+        <v>10019</v>
+      </c>
+      <c r="M131" t="s">
+        <v>189</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="H129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D130">
+      <c r="K132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L132">
         <v>11213</v>
       </c>
-      <c r="E130" t="s">
-        <v>116</v>
-      </c>
-      <c r="F130">
+      <c r="M132" t="s">
+        <v>110</v>
+      </c>
+      <c r="N132">
         <v>0</v>
       </c>
-      <c r="G130" t="s">
+      <c r="O132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" t="s">
+        <v>76</v>
+      </c>
+      <c r="K133" t="s">
+        <v>46</v>
+      </c>
+      <c r="L133">
+        <v>11213</v>
+      </c>
+      <c r="M133" t="s">
+        <v>110</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" t="s">
         <v>12</v>
       </c>
-      <c r="H130" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="K134" t="s">
+        <v>10</v>
+      </c>
+      <c r="L134">
+        <v>10016</v>
+      </c>
+      <c r="M134" t="s">
+        <v>32</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>30</v>
       </c>
-      <c r="B131" t="s">
-        <v>31</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135" t="s">
         <v>10</v>
       </c>
-      <c r="D131">
+      <c r="L135">
         <v>10016</v>
       </c>
-      <c r="E131" t="s">
+      <c r="M135" t="s">
         <v>32</v>
       </c>
-      <c r="F131">
+      <c r="N135">
         <v>0</v>
       </c>
-      <c r="G131" t="s">
+      <c r="O135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="K136" t="s">
+        <v>46</v>
+      </c>
+      <c r="L136">
+        <v>11222</v>
+      </c>
+      <c r="M136" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
         <v>12</v>
       </c>
-      <c r="H131" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>30</v>
-      </c>
-      <c r="B132" t="s">
-        <v>149</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132">
-        <v>10016</v>
-      </c>
-      <c r="E132" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132">
+      <c r="K137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L137">
+        <v>11222</v>
+      </c>
+      <c r="M137" t="s">
+        <v>23</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" t="s">
+        <v>150</v>
+      </c>
+      <c r="K138" t="s">
+        <v>46</v>
+      </c>
+      <c r="L138">
+        <v>11206</v>
+      </c>
+      <c r="M138" t="s">
+        <v>182</v>
+      </c>
+      <c r="N138">
         <v>0</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" t="s">
-        <v>49</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133">
-        <v>11222</v>
-      </c>
-      <c r="E133" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134" t="s">
-        <v>107</v>
-      </c>
-      <c r="C134" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134">
-        <v>11230</v>
-      </c>
-      <c r="E134" t="s">
-        <v>108</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>74</v>
-      </c>
-      <c r="H134" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" t="s">
-        <v>103</v>
-      </c>
-      <c r="C135" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135">
-        <v>11215</v>
-      </c>
-      <c r="E135" t="s">
-        <v>104</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>74</v>
-      </c>
-      <c r="H135" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>94</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136">
-        <v>11233</v>
-      </c>
-      <c r="E136" t="s">
-        <v>96</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136" t="s">
-        <v>74</v>
-      </c>
-      <c r="H136" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" t="s">
-        <v>50</v>
-      </c>
-      <c r="D137">
-        <v>11231</v>
-      </c>
-      <c r="E137" t="s">
-        <v>100</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>71</v>
-      </c>
-      <c r="B138" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138">
-        <v>10010</v>
-      </c>
-      <c r="E138" t="s">
-        <v>73</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138" t="s">
-        <v>74</v>
-      </c>
-      <c r="H138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139">
-        <v>11102</v>
-      </c>
-      <c r="E139" t="s">
-        <v>78</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139" t="s">
-        <v>74</v>
-      </c>
-      <c r="H139" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140">
-        <v>11102</v>
-      </c>
-      <c r="E140" t="s">
-        <v>78</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140" t="s">
-        <v>74</v>
-      </c>
-      <c r="H140" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>90</v>
-      </c>
-      <c r="B141" t="s">
-        <v>91</v>
-      </c>
-      <c r="C141" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141">
-        <v>11385</v>
-      </c>
-      <c r="E141" t="s">
-        <v>92</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" t="s">
-        <v>101</v>
-      </c>
-      <c r="C142" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142">
-        <v>11215</v>
-      </c>
-      <c r="E142" t="s">
-        <v>78</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142" t="s">
-        <v>74</v>
-      </c>
-      <c r="H142" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" t="s">
-        <v>107</v>
-      </c>
-      <c r="C143" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143">
-        <v>11230</v>
-      </c>
-      <c r="E143" t="s">
-        <v>108</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="s">
-        <v>81</v>
-      </c>
-      <c r="H143" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>94</v>
-      </c>
-      <c r="B144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C144" t="s">
-        <v>50</v>
-      </c>
-      <c r="D144">
-        <v>11233</v>
-      </c>
-      <c r="E144" t="s">
-        <v>96</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144" t="s">
-        <v>81</v>
-      </c>
-      <c r="H144" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>82</v>
-      </c>
-      <c r="B145" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145">
-        <v>10002</v>
-      </c>
-      <c r="E145" t="s">
-        <v>84</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145" t="s">
-        <v>81</v>
-      </c>
-      <c r="H145" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>80</v>
-      </c>
-      <c r="B146" t="s">
-        <v>118</v>
-      </c>
-      <c r="C146" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146">
-        <v>10001</v>
-      </c>
-      <c r="E146" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
-        <v>81</v>
-      </c>
-      <c r="H146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>80</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147">
-        <v>10001</v>
-      </c>
-      <c r="E147" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147" t="s">
-        <v>81</v>
-      </c>
-      <c r="H147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>86</v>
-      </c>
-      <c r="B148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148">
-        <v>11101</v>
-      </c>
-      <c r="E148" t="s">
-        <v>88</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H148" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>110</v>
-      </c>
-      <c r="B149" t="s">
-        <v>111</v>
-      </c>
-      <c r="C149" t="s">
-        <v>50</v>
-      </c>
-      <c r="D149">
-        <v>11238</v>
-      </c>
-      <c r="E149" t="s">
-        <v>112</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="s">
-        <v>81</v>
-      </c>
-      <c r="H149" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>90</v>
-      </c>
-      <c r="B150" t="s">
-        <v>91</v>
-      </c>
-      <c r="C150" t="s">
-        <v>47</v>
-      </c>
-      <c r="D150">
-        <v>11385</v>
-      </c>
-      <c r="E150" t="s">
-        <v>92</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" t="s">
-        <v>50</v>
-      </c>
-      <c r="D151">
-        <v>11213</v>
-      </c>
-      <c r="E151" t="s">
-        <v>116</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151" t="s">
-        <v>81</v>
-      </c>
-      <c r="H151" t="s">
-        <v>117</v>
+      <c r="O138" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H151">
-    <sortCondition ref="G1"/>
+  <sortState ref="A2:O138">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/DonateNYC.xlsx
+++ b/data/DonateNYC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="10580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DonateNYC.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="413">
   <si>
     <t>name</t>
   </si>
@@ -1414,6 +1414,9 @@
   </si>
   <si>
     <t>0900,1600</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7304,84 +7306,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H126" sqref="D125:H126"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>230</v>
@@ -7399,36 +7404,39 @@
         <v>230</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10001</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>230</v>
@@ -7446,36 +7454,39 @@
         <v>230</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10001</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>222</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>244</v>
@@ -7489,43 +7500,46 @@
       <c r="H4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>232</v>
+      <c r="I4" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11230</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>244</v>
@@ -7536,40 +7550,43 @@
       <c r="H5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>232</v>
+      <c r="I5" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>11230</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>91</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>244</v>
@@ -7583,40 +7600,43 @@
       <c r="H6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>232</v>
+      <c r="I6" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11230</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>244</v>
@@ -7630,87 +7650,93 @@
       <c r="H7" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>232</v>
+      <c r="I7" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11230</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>11221</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>240</v>
@@ -7730,31 +7756,34 @@
       <c r="J9" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10003</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>237</v>
@@ -7771,37 +7800,40 @@
       <c r="I10" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10003</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>237</v>
@@ -7818,40 +7850,43 @@
       <c r="I11" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10003</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>18</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>127</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>247</v>
@@ -7860,42 +7895,45 @@
         <v>247</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>11226</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>186</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>187</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>239</v>
@@ -7910,39 +7948,42 @@
         <v>239</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10011</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>188</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>211</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>239</v>
@@ -7960,36 +8001,39 @@
         <v>239</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>9</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10007</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>164</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>153</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>133</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>242</v>
@@ -8007,36 +8051,39 @@
         <v>242</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>38</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>11106</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>150</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>133</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>242</v>
@@ -8054,36 +8101,39 @@
         <v>242</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>38</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>11106</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>150</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>237</v>
@@ -8101,36 +8151,39 @@
         <v>237</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>10011</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>18</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>250</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>133</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>237</v>
@@ -8148,39 +8201,42 @@
         <v>237</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>9</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>10011</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>18</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>251</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>240</v>
@@ -8192,39 +8248,42 @@
         <v>240</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" t="s">
         <v>40</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>11215</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>87</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>203</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>133</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>252</v>
@@ -8239,89 +8298,95 @@
         <v>252</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>9</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10012</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>164</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>306</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>294</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>294</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11354</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>104</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>255</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>190</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>242</v>
@@ -8336,39 +8401,42 @@
         <v>242</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>10011</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>164</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>258</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>170</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>259</v>
@@ -8383,36 +8451,39 @@
         <v>259</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>9</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>10028</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>171</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>263</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>262</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>133</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>242</v>
@@ -8430,36 +8501,39 @@
         <v>242</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>38</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>11435</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>18</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>242</v>
@@ -8477,83 +8551,89 @@
         <v>242</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11435</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>18</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>265</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>173</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>133</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>266</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>9</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10028</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>174</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>162</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>239</v>
@@ -8568,39 +8648,42 @@
         <v>239</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>9</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>10010</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>164</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>270</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>271</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>272</v>
@@ -8618,36 +8701,39 @@
         <v>272</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>9</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>10023</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>22</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>272</v>
@@ -8665,36 +8751,39 @@
         <v>272</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>9</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>10023</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>22</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>274</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>276</v>
@@ -8705,43 +8794,46 @@
       <c r="G30" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>275</v>
+      <c r="H30" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>9</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10128</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>177</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>279</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>154</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>280</v>
@@ -8758,34 +8850,37 @@
       <c r="J31" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
         <v>40</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11206</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>155</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>270</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>133</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>272</v>
@@ -8803,36 +8898,39 @@
         <v>272</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>9</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>10128</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>22</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>272</v>
@@ -8850,36 +8948,39 @@
         <v>272</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>9</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>10128</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>22</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>282</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>169</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>283</v>
@@ -8894,39 +8995,42 @@
         <v>283</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>9</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>10128</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>164</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>196</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>133</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>231</v>
@@ -8946,31 +9050,34 @@
       <c r="J35" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" t="s">
         <v>9</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>10003</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>198</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>309</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>294</v>
@@ -8990,34 +9097,37 @@
       <c r="J36" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>11226</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>130</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>286</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>133</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>284</v>
@@ -9032,39 +9142,42 @@
         <v>284</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s">
         <v>40</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>11233</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>81</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>11</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>284</v>
@@ -9079,39 +9192,42 @@
         <v>284</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>11233</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>81</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>61</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>284</v>
@@ -9126,39 +9242,42 @@
         <v>284</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s">
         <v>9</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>11233</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>81</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>68</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>284</v>
@@ -9173,42 +9292,45 @@
         <v>284</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
         <v>40</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>11233</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>81</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>1</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>70</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>232</v>
@@ -9225,37 +9347,40 @@
       <c r="J41" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" t="s">
         <v>9</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>10002</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>71</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>288</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>163</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>239</v>
@@ -9267,48 +9392,51 @@
         <v>239</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>9</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>10075</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>164</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>1</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>292</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>293</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>293</v>
@@ -9317,45 +9445,48 @@
         <v>293</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>9</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>10010</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>18</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>1</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>293</v>
@@ -9364,36 +9495,39 @@
         <v>293</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>9</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>10010</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>18</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>17</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>293</v>
@@ -9411,36 +9545,39 @@
         <v>293</v>
       </c>
       <c r="J45" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>9</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>10011</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>18</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>124</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>133</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>293</v>
@@ -9458,39 +9595,42 @@
         <v>293</v>
       </c>
       <c r="J46" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>9</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>10011</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>18</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>1</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>296</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>297</v>
@@ -9505,36 +9645,39 @@
         <v>297</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>9</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>10024</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>22</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>36</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>11</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>299</v>
@@ -9552,36 +9695,39 @@
         <v>299</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>9</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>10024</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>22</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>1</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>300</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>160</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>133</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>301</v>
@@ -9601,34 +9747,37 @@
       <c r="J49" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s">
         <v>40</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>11249</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>158</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>302</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>83</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>61</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>303</v>
@@ -9643,36 +9792,39 @@
         <v>303</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>40</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>11231</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>84</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>292</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>133</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>290</v>
@@ -9690,36 +9842,39 @@
         <v>290</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>40</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>11238</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>18</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>11</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>290</v>
@@ -9737,36 +9892,39 @@
         <v>290</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>11238</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>18</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>1</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>296</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>122</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>133</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>297</v>
@@ -9784,36 +9942,39 @@
         <v>297</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>9</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>10010</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>22</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>1</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>297</v>
@@ -9831,36 +9992,39 @@
         <v>297</v>
       </c>
       <c r="J54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>9</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>10010</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>22</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>1</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>133</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>242</v>
@@ -9878,36 +10042,39 @@
         <v>242</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>9</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>10010</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>60</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>1</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>61</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>242</v>
@@ -9925,36 +10092,39 @@
         <v>242</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>9</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>10010</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>60</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>1</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>296</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>48</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>297</v>
@@ -9972,48 +10142,51 @@
         <v>297</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>9</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>10035</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>22</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>1</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>233</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>232</v>
@@ -10021,34 +10194,37 @@
       <c r="J58" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L58" t="s">
         <v>9</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>10001</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>14</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>1</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>233</v>
@@ -10059,8 +10235,8 @@
       <c r="G59" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>232</v>
+      <c r="H59" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>232</v>
@@ -10068,34 +10244,37 @@
       <c r="J59" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" t="s">
         <v>9</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>10001</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>14</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>1</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>68</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>233</v>
@@ -10106,8 +10285,8 @@
       <c r="G60" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>232</v>
+      <c r="H60" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>232</v>
@@ -10115,34 +10294,37 @@
       <c r="J60" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" t="s">
         <v>9</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>10001</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>14</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>1</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>205</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>206</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>133</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>236</v>
@@ -10162,34 +10344,37 @@
       <c r="J61" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L61" t="s">
         <v>9</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>10002</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>207</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>0</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>162</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>192</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>133</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>313</v>
@@ -10207,36 +10392,39 @@
         <v>313</v>
       </c>
       <c r="J62" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>9</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>10014</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>164</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>1</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>315</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>166</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>133</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>313</v>
@@ -10245,45 +10433,48 @@
         <v>313</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>9</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>10028</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>167</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>317</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>149</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>133</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>318</v>
@@ -10301,83 +10492,89 @@
         <v>318</v>
       </c>
       <c r="J64" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>38</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>11106</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>150</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>0</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>162</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>215</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>9</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>10025</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>164</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>1</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>320</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>47</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>133</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>321</v>
@@ -10395,36 +10592,39 @@
         <v>321</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>40</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>11201</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>22</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>1</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>47</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>11</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>321</v>
@@ -10442,36 +10642,39 @@
         <v>321</v>
       </c>
       <c r="J67" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>11201</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>22</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>1</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>324</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>328</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>133</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>231</v>
@@ -10491,31 +10694,34 @@
       <c r="J68" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L68" t="s">
         <v>38</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>11103</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>143</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>325</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>326</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>11</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>237</v>
@@ -10535,34 +10741,37 @@
       <c r="J69" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L69" t="s">
         <v>9</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>10035</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>18</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>327</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>11</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>240</v>
@@ -10582,31 +10791,34 @@
       <c r="J70" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>11207</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>33</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>325</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>42</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>133</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>329</v>
@@ -10621,39 +10833,42 @@
         <v>329</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>9</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>10025</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>18</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>42</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>11</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>329</v>
@@ -10668,39 +10883,42 @@
         <v>329</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>9</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>10025</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>18</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>1</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>332</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>64</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>133</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>329</v>
@@ -10720,34 +10938,37 @@
       <c r="J73" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" t="s">
         <v>38</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>11102</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>65</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>1</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>63</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>64</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>61</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>329</v>
@@ -10767,34 +10988,37 @@
       <c r="J74" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L74" t="s">
         <v>38</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>11102</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>65</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>1</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>333</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>204</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>133</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>334</v>
@@ -10812,36 +11036,39 @@
         <v>334</v>
       </c>
       <c r="J75" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>9</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>10023</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>164</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>1</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>336</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>178</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>133</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>240</v>
@@ -10856,39 +11083,42 @@
         <v>240</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" t="s">
         <v>9</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>10018</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>179</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>1</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>337</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>146</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>133</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>338</v>
@@ -10906,33 +11136,36 @@
         <v>338</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>38</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>11105</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>147</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>339</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>141</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>133</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>273</v>
@@ -10950,80 +11183,86 @@
         <v>273</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K78" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>38</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>11103</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>142</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>341</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>73</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L79" t="s">
         <v>38</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>11101</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>74</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>0</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>342</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>110</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>11</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>343</v>
@@ -11038,39 +11277,42 @@
         <v>343</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>11208</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>111</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>0</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>199</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>200</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>133</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>231</v>
@@ -11087,131 +11329,140 @@
       <c r="I81" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>9</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>10003</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>201</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>0</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>292</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>102</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>133</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>310</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>310</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>38</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>11101</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>18</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>1</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>102</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>11</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>310</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>310</v>
       </c>
       <c r="I83" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>11101</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>18</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>1</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>31</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>35</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>11</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>240</v>
@@ -11231,131 +11482,140 @@
       <c r="J84" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L84" t="s">
         <v>9</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>10009</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>33</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>346</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>51</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>11</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>347</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>348</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>11206</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>52</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>1</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>352</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>101</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>133</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>353</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>38</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>11377</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>18</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>1</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>356</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>45</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>133</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>357</v>
+      <c r="F87" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>357</v>
@@ -11366,40 +11626,43 @@
       <c r="I87" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>38</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>11103</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>46</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>44</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>45</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>11</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>357</v>
+      <c r="F88" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>357</v>
@@ -11410,34 +11673,37 @@
       <c r="I88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K88" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>38</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>11103</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>46</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>352</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>49</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>133</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>360</v>
@@ -11455,36 +11721,39 @@
         <v>360</v>
       </c>
       <c r="J89" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>40</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>11217</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>1</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>49</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>11</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>360</v>
@@ -11502,36 +11771,39 @@
         <v>360</v>
       </c>
       <c r="J90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>11217</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>18</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>1</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
         <v>361</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>219</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>133</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>362</v>
@@ -11543,39 +11815,42 @@
         <v>362</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>40</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>11215</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>220</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>365</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>119</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>133</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>366</v>
@@ -11593,36 +11868,39 @@
         <v>366</v>
       </c>
       <c r="J92" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>9</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>10011</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>22</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>1</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>20</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>119</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>11</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>366</v>
@@ -11640,36 +11918,39 @@
         <v>366</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>9</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>10011</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>22</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>1</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>368</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>37</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>11</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>407</v>
@@ -11684,39 +11965,42 @@
         <v>407</v>
       </c>
       <c r="I94" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>11101</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>39</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>1</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>369</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>139</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>133</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>370</v>
@@ -11731,36 +12015,39 @@
         <v>370</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L95" t="s">
         <v>38</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>11104</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>140</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>135</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>133</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>367</v>
@@ -11780,31 +12067,34 @@
       <c r="J96" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L96" t="s">
         <v>38</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>11104</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>136</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>371</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>94</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>133</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>240</v>
@@ -11819,39 +12109,42 @@
         <v>240</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L97" t="s">
         <v>40</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>11238</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>95</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>0</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>93</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>94</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>68</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>240</v>
@@ -11866,86 +12159,92 @@
         <v>240</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L98" t="s">
         <v>40</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>11238</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>95</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>0</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>372</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>114</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>351</v>
       </c>
       <c r="I99" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>11215</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>115</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>0</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>365</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>43</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>133</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>377</v>
@@ -11963,36 +12262,39 @@
         <v>377</v>
       </c>
       <c r="J100" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>38</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>11101</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>22</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>1</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>43</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>11</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>377</v>
@@ -12010,36 +12312,39 @@
         <v>377</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>38</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>11101</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>22</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>1</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>379</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>55</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>133</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>360</v>
@@ -12059,34 +12364,37 @@
       <c r="J102" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L102" t="s">
         <v>40</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>11217</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>56</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>0</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>54</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>55</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>11</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>360</v>
@@ -12106,40 +12414,43 @@
       <c r="J103" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L103" t="s">
         <v>40</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>11217</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>56</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>0</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>380</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>137</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>133</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>349</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>381</v>
@@ -12148,36 +12459,39 @@
         <v>381</v>
       </c>
       <c r="I104" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J104" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>38</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>11104</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>138</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>355</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>209</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>133</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>370</v>
@@ -12195,33 +12509,36 @@
         <v>370</v>
       </c>
       <c r="J105" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>9</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>10024</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>210</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>384</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>193</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>133</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>362</v>
@@ -12236,39 +12553,42 @@
         <v>362</v>
       </c>
       <c r="I106" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>9</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>10014</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>194</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>0</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>386</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>212</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>133</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>387</v>
@@ -12276,46 +12596,49 @@
       <c r="F107" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>240</v>
+      <c r="G107" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>349</v>
+      <c r="I107" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="L107" t="s">
         <v>9</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>10038</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>213</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>0</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>388</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>221</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>133</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>390</v>
@@ -12327,42 +12650,45 @@
         <v>390</v>
       </c>
       <c r="H108" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="K108" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>40</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>11215</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>217</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>0</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>368</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>11</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>392</v>
@@ -12377,39 +12703,42 @@
         <v>392</v>
       </c>
       <c r="I109" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>9</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>10018</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>10</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>1</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>352</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>24</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>11</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>353</v>
@@ -12427,36 +12756,39 @@
         <v>353</v>
       </c>
       <c r="J110" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>9</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>10036</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>18</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>1</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
         <v>16</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>128</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>133</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>353</v>
@@ -12474,39 +12806,42 @@
         <v>353</v>
       </c>
       <c r="J111" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>9</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>10036</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>18</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>1</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>394</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>144</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>396</v>
@@ -12521,209 +12856,224 @@
         <v>396</v>
       </c>
       <c r="J112" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>38</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>11385</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>397</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>133</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>408</v>
       </c>
       <c r="F113" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>38</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>11385</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>78</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>76</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>77</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>11</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>408</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="L114" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>11385</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>78</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>76</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>77</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>61</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>408</v>
       </c>
       <c r="F115" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>38</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>11385</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>78</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>76</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>77</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>68</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>408</v>
       </c>
       <c r="F116" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>38</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>11385</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>78</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>388</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>216</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>133</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>390</v>
@@ -12738,39 +13088,42 @@
         <v>390</v>
       </c>
       <c r="I117" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="K117" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>40</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>11217</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>217</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>0</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>352</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>132</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>11</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>360</v>
@@ -12788,36 +13141,39 @@
         <v>360</v>
       </c>
       <c r="J118" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>11220</v>
       </c>
-      <c r="M118" t="s">
+      <c r="N118" t="s">
         <v>18</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>1</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>398</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>85</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>133</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>399</v>
@@ -12837,34 +13193,37 @@
       <c r="J119" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L119" t="s">
         <v>40</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>11215</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>65</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>1</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>63</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>85</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>61</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>399</v>
@@ -12884,34 +13243,37 @@
       <c r="J120" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L120" t="s">
         <v>40</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>11215</v>
       </c>
-      <c r="M120" t="s">
+      <c r="N120" t="s">
         <v>65</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>1</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>365</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>30</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>11</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>400</v>
@@ -12929,36 +13291,39 @@
         <v>400</v>
       </c>
       <c r="J121" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K121" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>9</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>10011</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>22</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>1</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
         <v>20</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>120</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>133</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>400</v>
@@ -12976,36 +13341,39 @@
         <v>400</v>
       </c>
       <c r="J122" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K122" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>9</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>10011</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>22</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>1</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
         <v>181</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>182</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>133</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>235</v>
@@ -13020,39 +13388,42 @@
         <v>235</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L123" t="s">
         <v>9</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>10001</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>183</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>1</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
         <v>288</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>185</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>133</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>311</v>
@@ -13070,36 +13441,39 @@
         <v>311</v>
       </c>
       <c r="J124" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>9</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>10019</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>164</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>1</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
         <v>401</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>98</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>11</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>411</v>
@@ -13114,39 +13488,42 @@
         <v>411</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>232</v>
+        <v>411</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="K125" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L125" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>11213</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>99</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>0</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
         <v>97</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>98</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>68</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>411</v>
@@ -13161,42 +13538,45 @@
         <v>411</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>232</v>
+        <v>411</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L126" t="s">
         <v>40</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>11213</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>99</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>0</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
         <v>402</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>26</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>387</v>
@@ -13208,39 +13588,42 @@
         <v>387</v>
       </c>
       <c r="I127" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>9</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>10016</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>27</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>0</v>
       </c>
-      <c r="O127" t="s">
+      <c r="P127" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
         <v>25</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>126</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>11</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>343</v>
@@ -13254,40 +13637,43 @@
       <c r="H128" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I128" s="4" t="s">
-        <v>403</v>
+      <c r="I128" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L128" t="s">
         <v>9</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>10016</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>27</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>0</v>
       </c>
-      <c r="O128" t="s">
+      <c r="P128" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>404</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>157</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>133</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>405</v>
@@ -13307,25 +13693,28 @@
       <c r="J129" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="L129" t="s">
         <v>40</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>11206</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>158</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>0</v>
       </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O138">
-    <sortCondition ref="B1"/>
+  <sortState ref="B2:P138">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
